--- a/500LinesEveryday/笔记.xlsx
+++ b/500LinesEveryday/笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839E84E0-1664-4F64-A941-0F601AEEC239}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB13CC1D-54FD-438B-AA11-416139FFAFB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="12" windowWidth="11520" windowHeight="6180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -72,6 +72,16 @@
   </si>
   <si>
     <t>使用property更为规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用正则表达式在vs里去空行,
+在visualstudio里
+1 Ctrl+H 调出替换截面, 使用替换模式
+2 查找内容: ^\s*(?=\r?$)\n
+3 替换内容留空
+4 查找模式设置为: 正则表达式; 替换范围选择当前文档(当前项目测试了也行)
+5 点替换全部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,15 +223,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -251,7 +261,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4389120" y="1836420"/>
+          <a:off x="4099560" y="2118360"/>
           <a:ext cx="8313420" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -539,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -577,12 +587,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">

--- a/500LinesEveryday/笔记.xlsx
+++ b/500LinesEveryday/笔记.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB13CC1D-54FD-438B-AA11-416139FFAFB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7751B5C1-0689-48CE-9AF5-26D67065D5F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="12" windowWidth="11520" windowHeight="6180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="正则表达式" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,18 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
   <si>
     <t>attribute  和 property</t>
   </si>
   <si>
-    <t>正则表达式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>regexgolf</t>
-  </si>
-  <si>
     <t>vs里面删除所有空行</t>
   </si>
   <si>
@@ -59,10 +53,6 @@
   </si>
   <si>
     <t>自己掌握</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点:2020年1月13日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -84,12 +74,416 @@
 5 点替换全部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>正则表达式学习:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销项
+完成节点:2020年1月13日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则表达式
+Regular Expression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p[abc.]g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p[0-9a-z]g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(z|f)cod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^pb?$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^p{2}g$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^zo{2,5}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1[1-9]$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^1\D$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^\d\s+[a-z]$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^\s$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^\s*(?=\r?$)\n</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串提取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regex类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断是否匹配, 返回bool类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以提取所有匹配的字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Regex.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Matches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("字符串","要提取的字符串的正则表达式");</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Regex.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Replace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("字符串","正则表达式","替换的内容")</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Regex.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("字符串","要提取的字符串的正则表达式"); //只能提取一个(提取一次)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Regex.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IsMatch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("字符串","正则比");</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool mc3  =Regex.IsMatch("gege", "^b.*g$");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^b 表示以b开头
+. 表示:任意字符
+.* 表示任意字符出现任意次数
+g$ 表示以g+结尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用正则表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^[a-zA-Z]{5}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123abcet3434</t>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>() :小括号可以改变优先级,同时可以分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练习1 判断是否匹配为 连续的5个英文字母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练习2 电子邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(\w+)@(\w+)((\.\w+){1,2})</t>
+  </si>
+  <si>
+    <t>abc123@qq.com.cn</t>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练习3 判断字符串是否为正确的国内电话号码,不考虑分机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*  :0次或多次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+  1次或者多次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?  0次或者1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\d{3,4}\-?\d{7,8}|\d{5}|\d{11}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-8888888
+010-88888888
+0108888888
+0335-3333333
+10086
+95595
+95588
+10010
+13945698743</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练习4 判断是否为合法的日期格式"2008-08-08"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2008-08-08</t>
+  </si>
+  <si>
+    <t>\d{4}\-[0-1]\d\-[0-3]\d  还可以继续深化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练习5 判断是否为合法的url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.test.com/a.htm?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^http://www.\w*.com/\w\.\w*\?</t>
+  </si>
+  <si>
+    <t>regexgolf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regex Golf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(?!\w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表是后面没有字母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（...）表示取了前三个字符</t>
+  </si>
+  <si>
+    <t>\1表示前面（...）所代表的三个字符</t>
+  </si>
+  <si>
+    <t>abba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,13 +498,41 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -122,20 +544,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -216,72 +654,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE2F890F-4909-40C3-824B-7EE77775D0A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4099560" y="2118360"/>
-          <a:ext cx="8313420" cy="990600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -547,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D6:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -558,106 +930,465 @@
     <col min="1" max="1" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="2"/>
     <col min="3" max="3" width="34.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="63.44140625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="51.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>43833</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B2" s="2">
+    <row r="3" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+      <c r="D10" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" location="accesstoken=Q1QtY64Z6tHM9nq6gd+h" xr:uid="{4392B21F-FD64-4024-921D-12DF662914CA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F19A328-C3A2-44A6-ADFF-C9F20C374AAC}">
+  <dimension ref="A1:D49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="40" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B25" r:id="rId1" xr:uid="{E67F3334-AB95-4307-BA6B-2EDD58DCCD63}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/500LinesEveryday/笔记.xlsx
+++ b/500LinesEveryday/笔记.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7751B5C1-0689-48CE-9AF5-26D67065D5F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B7ED7D-13CC-4179-A158-6D441705BBD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="252" yWindow="1944" windowWidth="11520" windowHeight="8880" tabRatio="757" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="正则表达式" sheetId="2" r:id="rId2"/>
+    <sheet name="NewReferencePlane" sheetId="3" r:id="rId3"/>
+    <sheet name="SketchPlane" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="117">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -478,12 +480,203 @@
     <t>abba</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>NewReferencePlane:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(XYZ bubbleEnd, XYZ freeEnd, XYZ cutVec, View pView)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeEnd : 参考平面的起点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矢量 bubbleEnd-freeEnd: 是新平面的x 轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矢量cutVec - freeEnd : 将决定平面的y 轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z轴, 法线向量将遵循右手定则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(XYZ bubbleEnd, XYZ freeEnd, XYZ thirdPt, View pView)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> freeEnd: 是新参考平面的原点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矢量 bubbleEnd- freeEnd是新平面的X轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矢量thirdPt - freeEnd将决定y轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Z轴将遵循</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>左</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>手规则( 备注: 怎么来个左手规则)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点这里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意: 实际测的感觉是: freeEnd-bubbleEnd构成x轴, cutVec构成Y轴,然后右手定则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> freeEnd-bubbleEnd构成x轴是斜的情况,也能凑合符合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大拇指的方向是平面的法向量;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3参考平面使用lookup查询能得到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向: Direction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法向量: Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平面:Plane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeEnd是参考平面的起点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建草图平面的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creat(Document document, ElementId elementId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从网格, 引用平面或者标高等元素创建一个草图平面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creat(Document document,Plane plane)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从一个几何平面创建一个草图平面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creat(Document document, Reference planarFaceReference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从一个几何平面的引用创建一个草图平面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">^\s*(?=\r?$)\n
+^  开头
+\s 匹配任何空白字符
+* 零次或者多次
+(
+?=   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>???</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+\r?$  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>???</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+)   
+\n 匹配换行符</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,6 +713,30 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -548,7 +765,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -570,6 +787,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -664,7 +884,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -921,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1226,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="138" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -1015,6 +1235,9 @@
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
@@ -1069,7 +1292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F19A328-C3A2-44A6-ADFF-C9F20C374AAC}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
@@ -1391,4 +1614,239 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34068B7E-4B28-4CC5-9956-4C36DC7E60AD}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="11" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="11" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:2" s="11" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>2</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="11" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2.1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2.4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{9B252A37-4427-4EEF-8B9C-1E855AD69BD5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F58254-A70C-4171-8F7C-30068FD14FC6}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="11">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/500LinesEveryday/笔记.xlsx
+++ b/500LinesEveryday/笔记.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B7ED7D-13CC-4179-A158-6D441705BBD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDCCCDE-B638-4C4C-8F89-93CF059B1B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="252" yWindow="1944" windowWidth="11520" windowHeight="8880" tabRatio="757" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5748" yWindow="84" windowWidth="11520" windowHeight="8880" tabRatio="757" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="正则表达式" sheetId="2" r:id="rId2"/>
     <sheet name="NewReferencePlane" sheetId="3" r:id="rId3"/>
     <sheet name="SketchPlane" sheetId="4" r:id="rId4"/>
+    <sheet name="NewModelCurve" sheetId="5" r:id="rId5"/>
+    <sheet name="元素过滤器" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="150">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -671,12 +673,167 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">//修改为doc.Create.NewModelCurve, 能正确运行.
+ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">//书上的doc.FamilyCreate.NewModelCurve,已经不能运行.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//ModelCurve modelCircle = doc.FamilyCreate.NewModelCurve(arc,sketchPlane);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doc.Create.NewModelCurve</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">例如: ModelCurve modelCircle = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>doc.Create.NewModelCurve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(arc, sketchPlane);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementFilters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileteredElementCollector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三种构造方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FileteredElementCollector(Document document, Icollection&lt;ElementId&gt; elmentIds) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从一个文档和ElementId集合构造, 迭代会从这传进来的集合中进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FileteredElementCollector(Document document, ElementId viewId) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从一个文档和一个视图构造,迭代会从所有在传进来的视图中所见的元素中进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供了一系列的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用方法: WherePasses()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在收集器中应用单一的ElementFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FileteredElementCollector(Document document) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从一个文档构造, 迭代会从文档所有的元素进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1..2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该方法可以在结果中重复使用来增加不同的过滤器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快捷方法,不需要传初始化过滤器对象的易于使用的方法, 相当于常用过滤器filter的快捷键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OfClass()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OfCategoryId()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnedByView()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并集 交集等运算方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnionWith()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntersectWith()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些方法返回收集器本身, 并允许不同的过滤器链式调用.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,6 +894,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -765,7 +928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -790,6 +953,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1141,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1621,7 +1791,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1789,7 +1959,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1849,4 +2019,215 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF25F71B-987D-411C-9716-44411B2F7F4E}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="11" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E8D097-7E25-4919-B70D-30042BDDEC5A}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="11" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/500LinesEveryday/笔记.xlsx
+++ b/500LinesEveryday/笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDCCCDE-B638-4C4C-8F89-93CF059B1B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DC7B78-1CBB-4782-A98A-61F44B6A094B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5748" yWindow="84" windowWidth="11520" windowHeight="8880" tabRatio="757" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5748" yWindow="84" windowWidth="11520" windowHeight="8880" tabRatio="796" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="156">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -828,12 +828,35 @@
     <t>这些方法返回收集器本身, 并允许不同的过滤器链式调用.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>向收集器设置完必须的过滤器后, 就可以获取符合条件的元素了,有以下几种获取方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取元素ID或者元素本身的迭代器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取符合过滤器条件的元素ID后者元素本身的集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取符合过滤器条件的第一个元素ID或者元素本身.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当只需要唯一一个符合条件的与元素时, 这种方法很有用,因为不需要再去遍历所有符合条件的元素了.</t>
+  </si>
+  <si>
+    <t>foreach语法支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -900,6 +923,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -928,11 +960,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -959,6 +988,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="31" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1311,140 +1346,140 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="34.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="51.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:6" s="15" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14">
         <v>43833</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="138" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+    <row r="6" spans="1:6" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1468,312 +1503,312 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="40" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="6.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="40" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="69" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1799,16 +1834,16 @@
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="11" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11">
+    <row r="1" spans="1:2" s="10" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10">
         <v>1</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="11" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:2" s="10" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1848,38 +1883,38 @@
       <c r="A7">
         <v>1.5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-    </row>
-    <row r="12" spans="1:2" s="11" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:2" s="10" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
         <v>2</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="11" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
+    <row r="13" spans="1:2" s="10" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1920,7 +1955,7 @@
       <c r="A19" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1965,15 +2000,15 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="11">
+      <c r="A1" s="10">
         <v>1</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -2026,7 +2061,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E18" sqref="E17:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2034,11 +2069,11 @@
     <col min="1" max="1" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="11" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11">
+    <row r="1" spans="1:2" s="10" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10">
         <v>1</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2057,11 +2092,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2074,27 +2109,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E8D097-7E25-4919-B70D-30042BDDEC5A}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="14"/>
+    <col min="1" max="1" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="11" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13">
+    <row r="1" spans="1:2" s="10" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12">
         <v>1</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" t="s">
@@ -2107,7 +2142,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B4" t="s">
@@ -2120,7 +2155,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>135</v>
       </c>
       <c r="B6" t="s">
@@ -2133,7 +2168,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>136</v>
       </c>
       <c r="B8" t="s">
@@ -2146,7 +2181,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>1.2</v>
       </c>
       <c r="B10" t="s">
@@ -2154,7 +2189,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>137</v>
       </c>
       <c r="B11" t="s">
@@ -2172,7 +2207,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>139</v>
       </c>
       <c r="B14" t="s">
@@ -2200,7 +2235,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>145</v>
       </c>
       <c r="B19" t="s">
@@ -2218,11 +2253,56 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+      <c r="A23" s="13">
         <v>2</v>
       </c>
       <c r="B23" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>3.1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>3.2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/500LinesEveryday/笔记.xlsx
+++ b/500LinesEveryday/笔记.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\500LinesEveryday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\课堂仓库\QZH\500LineEveryDay\500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DC7B78-1CBB-4782-A98A-61F44B6A094B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEEC47E-B9F6-424E-BCC9-BAF38BAC3597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5748" yWindow="84" windowWidth="11520" windowHeight="8880" tabRatio="796" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="正则表达式" sheetId="2" r:id="rId2"/>
-    <sheet name="NewReferencePlane" sheetId="3" r:id="rId3"/>
-    <sheet name="SketchPlane" sheetId="4" r:id="rId4"/>
-    <sheet name="NewModelCurve" sheetId="5" r:id="rId5"/>
-    <sheet name="元素过滤器" sheetId="6" r:id="rId6"/>
+    <sheet name="知识点积累" sheetId="7" r:id="rId3"/>
+    <sheet name="NewReferencePlane" sheetId="3" r:id="rId4"/>
+    <sheet name="SketchPlane" sheetId="4" r:id="rId5"/>
+    <sheet name="NewModelCurve" sheetId="5" r:id="rId6"/>
+    <sheet name="元素过滤器" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1002,74 +1003,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1089,7 +1022,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1350,18 +1283,18 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1"/>
+    <col min="3" max="3" width="24.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="15" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A1" s="14">
         <v>43833</v>
       </c>
@@ -1381,7 +1314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -1395,7 +1328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -1406,7 +1339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -1420,7 +1353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -1431,7 +1364,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="151.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -1448,7 +1381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>6</v>
       </c>
@@ -1456,7 +1389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>7</v>
       </c>
@@ -1464,7 +1397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>8</v>
       </c>
@@ -1472,7 +1405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>9</v>
       </c>
@@ -1501,20 +1434,20 @@
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="40" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="23.875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1522,72 +1455,72 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -1595,7 +1528,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
@@ -1606,7 +1539,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
@@ -1617,7 +1550,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
@@ -1631,7 +1564,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
@@ -1639,7 +1572,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
@@ -1647,7 +1580,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>49</v>
       </c>
@@ -1655,7 +1588,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
@@ -1663,12 +1596,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
@@ -1676,17 +1609,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
@@ -1694,12 +1627,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>61</v>
       </c>
@@ -1707,17 +1640,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>65</v>
       </c>
@@ -1725,32 +1658,32 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="128.25" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>72</v>
       </c>
@@ -1758,17 +1691,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>76</v>
       </c>
@@ -1776,17 +1709,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B45" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>81</v>
       </c>
@@ -1794,7 +1727,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>83</v>
       </c>
@@ -1802,12 +1735,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
         <v>86</v>
       </c>
@@ -1822,19 +1755,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099EEE33-469E-4305-B3B1-59DE018C1CBF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34068B7E-4B28-4CC5-9956-4C36DC7E60AD}">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="10" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="10" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10">
         <v>1</v>
       </c>
@@ -1842,12 +1791,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="10" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="10" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.1000000000000001</v>
       </c>
@@ -1855,7 +1804,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.2</v>
       </c>
@@ -1863,7 +1812,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.3</v>
       </c>
@@ -1871,7 +1820,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.4</v>
       </c>
@@ -1879,7 +1828,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.5</v>
       </c>
@@ -1887,25 +1836,25 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:2" s="10" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" s="10" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2</v>
       </c>
@@ -1913,12 +1862,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="10" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="10" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2.1</v>
       </c>
@@ -1926,7 +1875,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2.2000000000000002</v>
       </c>
@@ -1934,7 +1883,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2.2999999999999998</v>
       </c>
@@ -1942,7 +1891,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2.4</v>
       </c>
@@ -1950,8 +1899,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -1959,22 +1908,22 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>107</v>
       </c>
@@ -1989,7 +1938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F58254-A70C-4171-8F7C-30068FD14FC6}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -1997,9 +1946,9 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="10">
         <v>1</v>
       </c>
@@ -2010,7 +1959,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -2018,12 +1967,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.2</v>
       </c>
@@ -2031,12 +1980,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.3</v>
       </c>
@@ -2044,60 +1993,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF25F71B-987D-411C-9716-44411B2F7F4E}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E17:E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="10" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10">
-        <v>1</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2108,19 +2006,70 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF25F71B-987D-411C-9716-44411B2F7F4E}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E17:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="10" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E8D097-7E25-4919-B70D-30042BDDEC5A}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="8.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="10" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="10" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12">
         <v>1</v>
       </c>
@@ -2128,7 +2077,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>1.1000000000000001</v>
       </c>
@@ -2136,12 +2085,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>132</v>
       </c>
@@ -2149,12 +2098,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>135</v>
       </c>
@@ -2162,12 +2111,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>136</v>
       </c>
@@ -2175,12 +2124,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>1.2</v>
       </c>
@@ -2188,7 +2137,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>137</v>
       </c>
@@ -2196,17 +2145,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>139</v>
       </c>
@@ -2214,27 +2163,27 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>145</v>
       </c>
@@ -2242,17 +2191,17 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>2</v>
       </c>
@@ -2260,7 +2209,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>3</v>
       </c>
@@ -2268,7 +2217,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>3.1</v>
       </c>
@@ -2276,7 +2225,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>3.2</v>
       </c>
@@ -2284,7 +2233,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>3.3</v>
       </c>
@@ -2292,12 +2241,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>4</v>
       </c>
